--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value88.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value88.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.116209998342255</v>
+        <v>4.668431282043457</v>
       </c>
       <c r="B1">
-        <v>1.324116255839695</v>
+        <v>4.453009128570557</v>
       </c>
       <c r="C1">
-        <v>1.74175255606883</v>
+        <v>3.409494638442993</v>
       </c>
       <c r="D1">
-        <v>4.118411525492045</v>
+        <v>2.592077016830444</v>
       </c>
       <c r="E1">
-        <v>3.502725393184581</v>
+        <v>2.167780160903931</v>
       </c>
     </row>
   </sheetData>
